--- a/excel_40/aula07/inss.xlsx
+++ b/excel_40/aula07/inss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\excel_40\aula07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A8BAC2-3356-42CE-AFF0-A0DDCC9BB087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2997C3-C402-4551-BBF6-3DE6308BA547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11904" xr2:uid="{155BFBEB-2B2B-4B85-815E-6F80F6E6BEA7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Araras Informática - Hardware e Software</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Paulo</t>
+  </si>
+  <si>
+    <t>Salário Base</t>
   </si>
 </sst>
 </file>
@@ -243,26 +246,8 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -273,10 +258,8 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -284,6 +267,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -600,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EFAFEC-83DF-4EF1-B791-0893B3B29A12}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,299 +615,265 @@
     <col min="1" max="1" width="3.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6">
+        <v>853</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E4" s="8">
+        <f>C4*D4</f>
+        <v>76.77</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11">
+        <v>951</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="27">
+        <f>C5*D5</f>
+        <v>76.08</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="12">
+        <v>9.9900000000000003E-2</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>3</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11">
+        <v>456</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="27">
+        <f>C6*D6</f>
+        <v>27.36</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="12">
+        <v>8.6400000000000005E-2</v>
+      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>4</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="11">
+        <v>500</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.06</v>
+      </c>
+      <c r="E7" s="27">
+        <f>C7*D7</f>
+        <v>30</v>
+      </c>
+      <c r="F7" s="26"/>
+      <c r="G7" s="12">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>5</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="11">
+        <v>850</v>
+      </c>
+      <c r="D8" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E8" s="27">
+        <f>C8*D8</f>
+        <v>59.500000000000007</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="12">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="H8" s="27"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="B9" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="11">
+        <v>459</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E9" s="27">
+        <f>C9*D9</f>
+        <v>22.950000000000003</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="12">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="B10" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="11">
+        <v>478</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="E10" s="27">
+        <f>C10*D10</f>
+        <v>23.900000000000002</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="12">
+        <v>7.1199999999999999E-2</v>
+      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
         <v>8</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="12">
-        <v>853</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="F4" s="14">
-        <f>C4*D4</f>
-        <v>85.300000000000011</v>
-      </c>
-      <c r="G4" s="14">
-        <f>C4*E4</f>
-        <v>76.77</v>
-      </c>
-      <c r="H4" s="15">
-        <f>C4+G4-F4</f>
-        <v>844.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>2</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="18">
-        <v>951</v>
-      </c>
-      <c r="D5" s="19">
-        <v>9.9900000000000003E-2</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="F5" s="20">
-        <f t="shared" ref="F5:F11" si="0">C5*D5</f>
-        <v>95.004900000000006</v>
-      </c>
-      <c r="G5" s="20">
-        <f t="shared" ref="G5:G11" si="1">C5*E5</f>
-        <v>76.08</v>
-      </c>
-      <c r="H5" s="21">
-        <f t="shared" ref="H5:H11" si="2">C5+G5-F5</f>
-        <v>932.07509999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="18">
-        <v>456</v>
-      </c>
-      <c r="D6" s="19">
-        <v>8.6400000000000005E-2</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="F6" s="20">
-        <f t="shared" si="0"/>
-        <v>39.398400000000002</v>
-      </c>
-      <c r="G6" s="20">
-        <f t="shared" si="1"/>
-        <v>27.36</v>
-      </c>
-      <c r="H6" s="21">
-        <f t="shared" si="2"/>
-        <v>443.96160000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>4</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="18">
-        <v>500</v>
-      </c>
-      <c r="D7" s="19">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0.06</v>
-      </c>
-      <c r="F7" s="20">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="H7" s="21">
-        <f t="shared" si="2"/>
-        <v>487.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
-        <v>5</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="18">
-        <v>850</v>
-      </c>
-      <c r="D8" s="19">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="E8" s="19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F8" s="20">
-        <f t="shared" si="0"/>
-        <v>76.414999999999992</v>
-      </c>
-      <c r="G8" s="20">
-        <f t="shared" si="1"/>
-        <v>59.500000000000007</v>
-      </c>
-      <c r="H8" s="21">
-        <f t="shared" si="2"/>
-        <v>833.08500000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
-        <v>6</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="18">
-        <v>459</v>
-      </c>
-      <c r="D9" s="19">
-        <v>6.25E-2</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" si="0"/>
-        <v>28.6875</v>
-      </c>
-      <c r="G9" s="20">
-        <f t="shared" si="1"/>
-        <v>22.950000000000003</v>
-      </c>
-      <c r="H9" s="21">
-        <f t="shared" si="2"/>
-        <v>453.26249999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
-        <v>7</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="18">
-        <v>478</v>
-      </c>
-      <c r="D10" s="19">
-        <v>7.1199999999999999E-2</v>
-      </c>
-      <c r="E10" s="19">
-        <v>0.05</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" si="0"/>
-        <v>34.0336</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" si="1"/>
-        <v>23.900000000000002</v>
-      </c>
-      <c r="H10" s="21">
-        <f t="shared" si="2"/>
-        <v>467.8664</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22">
-        <v>8</v>
-      </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="16">
         <v>658</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="17">
+        <v>0.04</v>
+      </c>
+      <c r="E11" s="18">
+        <f>C11*D11</f>
+        <v>26.32</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="17">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="E11" s="25">
-        <v>0.04</v>
-      </c>
-      <c r="F11" s="26">
-        <f t="shared" si="0"/>
-        <v>39.414200000000001</v>
-      </c>
-      <c r="G11" s="26">
-        <f t="shared" si="1"/>
-        <v>26.32</v>
-      </c>
-      <c r="H11" s="27">
-        <f t="shared" si="2"/>
-        <v>644.9058</v>
-      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/excel_40/aula07/inss.xlsx
+++ b/excel_40/aula07/inss.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\excel_40\aula07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2997C3-C402-4551-BBF6-3DE6308BA547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A107F3-2544-4645-8F20-C0BA3C3DB76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11904" xr2:uid="{155BFBEB-2B2B-4B85-815E-6F80F6E6BEA7}"/>
   </bookViews>
@@ -115,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -180,43 +180,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -246,21 +209,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
@@ -285,9 +245,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -606,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EFAFEC-83DF-4EF1-B791-0893B3B29A12}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,37 +577,37 @@
     <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -665,7 +625,7 @@
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -674,201 +634,273 @@
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>853</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>0.09</v>
       </c>
-      <c r="E4" s="8">
-        <f>C4*D4</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E11" si="0">C4*D4</f>
         <v>76.77</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7">
+      <c r="F4" s="5">
+        <f>C4+E4</f>
+        <v>929.77</v>
+      </c>
+      <c r="G4" s="4">
         <v>0.1</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="9"/>
+      <c r="H4" s="5">
+        <f>F4*G4</f>
+        <v>92.977000000000004</v>
+      </c>
+      <c r="I4" s="6">
+        <f>F4-H4</f>
+        <v>836.79300000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>951</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="9">
         <v>0.08</v>
       </c>
-      <c r="E5" s="27">
-        <f>C5*D5</f>
+      <c r="E5" s="23">
+        <f t="shared" si="0"/>
         <v>76.08</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="12">
+      <c r="F5" s="23">
+        <f t="shared" ref="F5:F11" si="1">C5+E5</f>
+        <v>1027.08</v>
+      </c>
+      <c r="G5" s="9">
         <v>9.9900000000000003E-2</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="13"/>
+      <c r="H5" s="23">
+        <f t="shared" ref="H5:H11" si="2">F5*G5</f>
+        <v>102.60529199999999</v>
+      </c>
+      <c r="I5" s="10">
+        <f>F5-H5</f>
+        <v>924.47470799999996</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>456</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>0.06</v>
       </c>
-      <c r="E6" s="27">
-        <f>C6*D6</f>
+      <c r="E6" s="23">
+        <f t="shared" si="0"/>
         <v>27.36</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="12">
+      <c r="F6" s="23">
+        <f t="shared" si="1"/>
+        <v>483.36</v>
+      </c>
+      <c r="G6" s="9">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="13"/>
+      <c r="H6" s="23">
+        <f t="shared" si="2"/>
+        <v>41.762304</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" ref="I6:I11" si="3">F6-H6</f>
+        <v>441.59769600000004</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>500</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="9">
         <v>0.06</v>
       </c>
-      <c r="E7" s="27">
-        <f>C7*D7</f>
+      <c r="E7" s="23">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="12">
+      <c r="F7" s="23">
+        <f t="shared" si="1"/>
+        <v>530</v>
+      </c>
+      <c r="G7" s="9">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H7" s="27"/>
-      <c r="I7" s="13"/>
+      <c r="H7" s="23">
+        <f t="shared" si="2"/>
+        <v>45.050000000000004</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="3"/>
+        <v>484.95</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>850</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E8" s="27">
-        <f>C8*D8</f>
+      <c r="E8" s="23">
+        <f t="shared" si="0"/>
         <v>59.500000000000007</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="12">
+      <c r="F8" s="23">
+        <f t="shared" si="1"/>
+        <v>909.5</v>
+      </c>
+      <c r="G8" s="9">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="23">
+        <f t="shared" si="2"/>
+        <v>81.764049999999997</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="3"/>
+        <v>827.73595</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>459</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="9">
         <v>0.05</v>
       </c>
-      <c r="E9" s="27">
-        <f>C9*D9</f>
+      <c r="E9" s="23">
+        <f t="shared" si="0"/>
         <v>22.950000000000003</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="12">
+      <c r="F9" s="23">
+        <f t="shared" si="1"/>
+        <v>481.95</v>
+      </c>
+      <c r="G9" s="9">
         <v>6.25E-2</v>
       </c>
-      <c r="H9" s="27"/>
-      <c r="I9" s="13"/>
+      <c r="H9" s="23">
+        <f t="shared" si="2"/>
+        <v>30.121874999999999</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="3"/>
+        <v>451.828125</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>478</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="9">
         <v>0.05</v>
       </c>
-      <c r="E10" s="27">
-        <f>C10*D10</f>
+      <c r="E10" s="23">
+        <f t="shared" si="0"/>
         <v>23.900000000000002</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="12">
+      <c r="F10" s="23">
+        <f t="shared" si="1"/>
+        <v>501.9</v>
+      </c>
+      <c r="G10" s="9">
         <v>7.1199999999999999E-2</v>
       </c>
-      <c r="H10" s="27"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="23">
+        <f t="shared" si="2"/>
+        <v>35.735279999999996</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="3"/>
+        <v>466.16471999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14">
+      <c r="A11" s="11">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="13">
         <v>658</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="14">
         <v>0.04</v>
       </c>
-      <c r="E11" s="18">
-        <f>C11*D11</f>
+      <c r="E11" s="15">
+        <f t="shared" si="0"/>
         <v>26.32</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="17">
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>684.32</v>
+      </c>
+      <c r="G11" s="14">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>40.990768000000003</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" si="3"/>
+        <v>643.32923200000005</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
